--- a/datasets/clean_wines_dataset.xlsx
+++ b/datasets/clean_wines_dataset.xlsx
@@ -1824,7 +1824,7 @@
         </is>
       </c>
       <c r="Q16" t="n">
-        <v>9.200000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R16" t="b">
         <v>0</v>
@@ -2085,7 +2085,7 @@
         </is>
       </c>
       <c r="Q19" t="n">
-        <v>81.60000000000001</v>
+        <v>81.59999999999999</v>
       </c>
       <c r="R19" t="b">
         <v>0</v>
@@ -3651,7 +3651,7 @@
         </is>
       </c>
       <c r="Q37" t="n">
-        <v>24.06395376711558</v>
+        <v>24.0639537671156</v>
       </c>
       <c r="R37" t="b">
         <v>1</v>
@@ -4341,7 +4341,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P45" t="inlineStr"/>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q45" t="n">
         <v>13.6</v>
       </c>
@@ -4946,7 +4950,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P52" t="inlineStr"/>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q52" t="n">
         <v>17</v>
       </c>
@@ -6247,7 +6255,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P67" t="inlineStr"/>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q67" t="n">
         <v>12</v>
       </c>
@@ -6336,7 +6348,7 @@
         </is>
       </c>
       <c r="Q68" t="n">
-        <v>81.80000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="R68" t="b">
         <v>0</v>
@@ -9636,7 +9648,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P106" t="inlineStr"/>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q106" t="n">
         <v>12</v>
       </c>
@@ -10154,7 +10170,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P112" t="inlineStr"/>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q112" t="n">
         <v>13.8</v>
       </c>
@@ -11281,7 +11301,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P125" t="inlineStr"/>
+      <c r="P125" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q125" t="n">
         <v>39.8</v>
       </c>
@@ -12669,7 +12693,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P141" t="inlineStr"/>
+      <c r="P141" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q141" t="n">
         <v>25</v>
       </c>
@@ -13100,7 +13128,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P146" t="inlineStr"/>
+      <c r="P146" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q146" t="n">
         <v>50</v>
       </c>
@@ -13531,7 +13563,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P151" t="inlineStr"/>
+      <c r="P151" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q151" t="n">
         <v>28</v>
       </c>
@@ -16572,7 +16608,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P186" t="inlineStr"/>
+      <c r="P186" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q186" t="n">
         <v>14</v>
       </c>
@@ -18221,7 +18261,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P205" t="inlineStr"/>
+      <c r="P205" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q205" t="n">
         <v>16</v>
       </c>
@@ -18919,7 +18963,7 @@
         </is>
       </c>
       <c r="Q213" t="n">
-        <v>85.80000000000001</v>
+        <v>85.8</v>
       </c>
       <c r="R213" t="b">
         <v>1</v>
@@ -21616,7 +21660,7 @@
         </is>
       </c>
       <c r="Q244" t="n">
-        <v>81.80000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="R244" t="b">
         <v>0</v>
@@ -25090,7 +25134,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P284" t="inlineStr"/>
+      <c r="P284" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q284" t="n">
         <v>17.8</v>
       </c>
@@ -25521,7 +25569,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P289" t="inlineStr"/>
+      <c r="P289" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q289" t="n">
         <v>32</v>
       </c>
@@ -26387,7 +26439,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P299" t="inlineStr"/>
+      <c r="P299" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q299" t="n">
         <v>14</v>
       </c>
@@ -27607,7 +27663,7 @@
         </is>
       </c>
       <c r="Q313" t="n">
-        <v>9.200000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="R313" t="b">
         <v>0</v>
@@ -29695,7 +29751,7 @@
         </is>
       </c>
       <c r="Q337" t="n">
-        <v>11.12315376711558</v>
+        <v>11.1231537671156</v>
       </c>
       <c r="R337" t="b">
         <v>1</v>
@@ -30913,7 +30969,7 @@
         </is>
       </c>
       <c r="Q351" t="n">
-        <v>11.12315376711558</v>
+        <v>11.1231537671156</v>
       </c>
       <c r="R351" t="b">
         <v>1</v>
@@ -31174,7 +31230,7 @@
         </is>
       </c>
       <c r="Q354" t="n">
-        <v>7.600000000000001</v>
+        <v>7.6</v>
       </c>
       <c r="R354" t="b">
         <v>1</v>
@@ -31261,7 +31317,7 @@
         </is>
       </c>
       <c r="Q355" t="n">
-        <v>7.800000000000001</v>
+        <v>7.8</v>
       </c>
       <c r="R355" t="b">
         <v>1</v>
@@ -32473,7 +32529,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P369" t="inlineStr"/>
+      <c r="P369" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q369" t="n">
         <v>16.5</v>
       </c>
@@ -33774,7 +33834,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P384" t="inlineStr"/>
+      <c r="P384" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q384" t="n">
         <v>15</v>
       </c>
@@ -35771,7 +35835,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P407" t="inlineStr"/>
+      <c r="P407" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q407" t="n">
         <v>35</v>
       </c>
@@ -35941,7 +36009,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P409" t="inlineStr"/>
+      <c r="P409" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q409" t="n">
         <v>19.8</v>
       </c>
@@ -41679,7 +41751,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P475" t="inlineStr"/>
+      <c r="P475" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q475" t="n">
         <v>14</v>
       </c>
@@ -42545,7 +42621,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P485" t="inlineStr"/>
+      <c r="P485" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q485" t="n">
         <v>25</v>
       </c>
@@ -44020,7 +44100,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P502" t="inlineStr"/>
+      <c r="P502" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q502" t="n">
         <v>11</v>
       </c>
@@ -44103,7 +44187,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P503" t="inlineStr"/>
+      <c r="P503" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q503" t="n">
         <v>13</v>
       </c>
@@ -44795,7 +44883,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P511" t="inlineStr"/>
+      <c r="P511" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q511" t="n">
         <v>17</v>
       </c>
@@ -46009,7 +46101,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P525" t="inlineStr"/>
+      <c r="P525" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q525" t="n">
         <v>13</v>
       </c>
@@ -48876,7 +48972,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P558" t="inlineStr"/>
+      <c r="P558" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q558" t="n">
         <v>46</v>
       </c>
@@ -50786,7 +50886,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P580" t="inlineStr"/>
+      <c r="P580" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q580" t="n">
         <v>9</v>
       </c>
@@ -51913,7 +52017,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P593" t="inlineStr"/>
+      <c r="P593" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q593" t="n">
         <v>23.8</v>
       </c>
@@ -53910,7 +54018,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P616" t="inlineStr"/>
+      <c r="P616" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q616" t="n">
         <v>15</v>
       </c>
@@ -54167,7 +54279,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P619" t="inlineStr"/>
+      <c r="P619" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q619" t="n">
         <v>15</v>
       </c>
@@ -54250,7 +54366,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P620" t="inlineStr"/>
+      <c r="P620" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q620" t="n">
         <v>15</v>
       </c>
@@ -56508,7 +56628,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P646" t="inlineStr"/>
+      <c r="P646" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q646" t="n">
         <v>12</v>
       </c>
@@ -57287,7 +57411,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P655" t="inlineStr"/>
+      <c r="P655" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q655" t="n">
         <v>7</v>
       </c>
@@ -58501,7 +58629,11 @@
           <t>Contains sulphites</t>
         </is>
       </c>
-      <c r="P669" t="inlineStr"/>
+      <c r="P669" t="inlineStr">
+        <is>
+          <t>Red Meat</t>
+        </is>
+      </c>
       <c r="Q669" t="n">
         <v>15</v>
       </c>
